--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="9">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>13.16666666666667</v>
+        <v>14.83333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="15">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="24">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>23</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="30">

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2352941176470588</v>
+        <v>1.058823529411765</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1.416666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7692307692307693</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>1.285714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>14.83333333333333</v>
+        <v>19.66666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7272727272727273</v>
+        <v>1.636363636363636</v>
       </c>
     </row>
     <row r="24">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>23</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.058823529411765</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.416666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8571428571428571</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>1.538461538461539</v>
+        <v>2.769230769230769</v>
       </c>
     </row>
     <row r="9">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>19.66666666666667</v>
+        <v>16.16666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9629629629629629</v>
+        <v>1.481481481481481</v>
       </c>
     </row>
     <row r="14">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.111111111111111</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>1.636363636363636</v>
+        <v>3.454545454545455</v>
       </c>
     </row>
     <row r="24">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>21</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="30">

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>46.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.285714285714286</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.769230769230769</v>
+        <v>2.230769230769231</v>
       </c>
     </row>
     <row r="9">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>16.16666666666667</v>
+        <v>17.33333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>1.481481481481481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>1.111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>3.454545454545455</v>
+        <v>2.909090909090909</v>
       </c>
     </row>
     <row r="24">

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9411764705882353</v>
+        <v>1.058823529411765</v>
       </c>
     </row>
     <row r="4">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.230769230769231</v>
+        <v>2.076923076923077</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>17.33333333333333</v>
+        <v>17.66666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="16">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.909090909090909</v>
+        <v>2.181818181818182</v>
       </c>
     </row>
     <row r="24">

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.428571428571429</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.076923076923077</v>
+        <v>2.153846153846154</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5714285714285714</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>17.66666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.407407407407407</v>
       </c>
     </row>
     <row r="14">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.181818181818182</v>
+        <v>2.363636363636364</v>
       </c>
     </row>
     <row r="24">
